--- a/LP Github repos.xlsx
+++ b/LP Github repos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LP Github repos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LP Github repos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,426 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lp-home</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Renovate</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lp-home-web</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Renovate</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lp-home</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Renovate</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>lp-home-web</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renovate and Dependabot</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lp-home</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Renovate</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lp-home-web</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Renovate and Dependabot</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lp-home</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Renovate</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>lp-home-web</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Renovate and Dependabot</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ci-iam-poc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TinCanPHP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
